--- a/CashFlow/GWW_cashflow.xlsx
+++ b/CashFlow/GWW_cashflow.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>164000000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>356000000.0</v>
@@ -516,7 +516,7 @@
         <v>464000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>358000000.0</v>
+        <v>181000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>173000000.0</v>
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5260000000.0</v>
+        <v>-125000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6823000000.0</v>
+        <v>-158000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6745000000.0</v>
+        <v>-346000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4971000000.0</v>
+        <v>-262000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3268000000.0</v>
+        <v>-107000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1673000000.0</v>
+        <v>-106000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-58000000.0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-136000000.0</v>
+        <v>2324000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>80000000.0</v>
+        <v>3248000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>127000000.0</v>
+        <v>3188000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>111000000.0</v>
+        <v>2402000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>207000000.0</v>
+        <v>1652000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-155000000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-83000000.0</v>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>43000000.0</v>
+        <v>98000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20000000.0</v>
@@ -4239,10 +4239,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>-617000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>-531000000.0</v>
